--- a/FONDOS_CLASES.xlsx
+++ b/FONDOS_CLASES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01sar\OneDrive\Desktop\WEB ANIMALS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01sar\OneDrive\Desktop\WEB ANIMALS\21-10-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94720D2-AEF9-4049-8A87-57B57D6F8CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A7585-705F-430B-9A40-7F596A7DEE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>IMAGEN</t>
   </si>
@@ -28,9 +28,6 @@
     <t>AUDIO</t>
   </si>
   <si>
-    <t>PORTADA</t>
-  </si>
-  <si>
     <t>SABANA</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>INVERTEBRATE</t>
   </si>
   <si>
-    <t>NICE TO MEET YOU</t>
-  </si>
-  <si>
     <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/SABANA.png</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
   </si>
   <si>
     <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/INVERTEBRATE%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/PORTADA.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/NICE%20TO%20MEET%20YOU.mp3</t>
   </si>
   <si>
     <t>OTROS</t>
@@ -470,10 +458,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -484,7 +472,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -494,8 +482,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -504,7 +499,7 @@
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -526,7 +521,7 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -548,7 +543,7 @@
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -556,7 +551,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -567,7 +562,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -578,7 +573,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -589,7 +584,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -600,7 +595,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -608,33 +603,16 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -644,12 +622,8 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="21" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
